--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.081321.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.081321.xlsx_with_dialog_acts.xlsx
@@ -1953,12 +1953,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2365,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2517,12 +2517,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3353,12 +3353,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4383,12 +4383,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5067,12 +5067,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5783,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5935,12 +5935,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6011,12 +6011,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6235,12 +6235,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6311,12 +6311,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6387,12 +6387,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6425,12 +6425,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6463,12 +6463,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6505,12 +6505,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6543,12 +6543,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6619,12 +6619,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6813,12 +6813,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6851,12 +6851,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7231,12 +7231,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7833,12 +7833,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7871,12 +7871,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7909,12 +7909,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7947,12 +7947,12 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7985,12 +7985,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8137,12 +8137,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8441,12 +8441,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8479,12 +8479,12 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8517,12 +8517,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8555,12 +8555,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9197,12 +9197,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9349,12 +9349,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9653,12 +9653,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10227,12 +10227,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10569,12 +10569,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11101,12 +11101,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11215,12 +11215,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11367,12 +11367,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11903,12 +11903,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
